--- a/data/nursing_home/data.xlsx
+++ b/data/nursing_home/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>高松市宮脇町二丁目26-12</v>
       </c>
       <c r="F2" t="str">
-        <v>087-836-9123</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -475,7 +475,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J2" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -484,10 +484,10 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v>29</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>高松市福岡町二丁目16-6　福岡事業所１階</v>
       </c>
       <c r="F3" t="str">
-        <v>087-823-0559</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -519,7 +519,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J3" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -528,10 +528,10 @@
         <v/>
       </c>
       <c r="M3" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N3" t="str">
-        <v>29</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         <v>高松市西山崎町196-2</v>
       </c>
       <c r="F4" t="str">
-        <v>087-885-1165</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>http://www.koutouen.com/</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -563,7 +563,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J4" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -572,10 +572,10 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N4" t="str">
-        <v>25</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -583,19 +583,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>34.30831278</v>
+        <v>34.3215625</v>
       </c>
       <c r="C5" t="str">
-        <v>134.0226719</v>
+        <v>134.0749803</v>
       </c>
       <c r="D5" t="str">
-        <v>サマリヤ勅使小規模多機能型居宅介護事業所</v>
+        <v>小規模多機能ホームたんぽぽの家</v>
       </c>
       <c r="E5" t="str">
-        <v>高松市勅使町字大隈1378-1、1379番地</v>
+        <v>高松市木太町1539-8</v>
       </c>
       <c r="F5" t="str">
-        <v>087-867-2531</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -607,7 +607,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J5" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -616,10 +616,10 @@
         <v/>
       </c>
       <c r="M5" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N5" t="str">
-        <v>25</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -627,19 +627,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>34.3215625</v>
+        <v>34.31648028</v>
       </c>
       <c r="C6" t="str">
-        <v>134.0749803</v>
+        <v>134.1022917</v>
       </c>
       <c r="D6" t="str">
-        <v>小規模多機能ホームたんぽぽの家</v>
+        <v>ケアサポート長谷川（古高松）</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市木太町1539-8</v>
+        <v>高松市新田町甲2181-1</v>
       </c>
       <c r="F6" t="str">
-        <v>087-813-1111</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -651,7 +651,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J6" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -660,10 +660,10 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N6" t="str">
-        <v>29</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -671,19 +671,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>34.31648028</v>
+        <v>34.35848056</v>
       </c>
       <c r="C7" t="str">
-        <v>134.1022917</v>
+        <v>134.0891589</v>
       </c>
       <c r="D7" t="str">
-        <v>ケアサポート長谷川（古高松）</v>
+        <v>小規模多機能施設　富士</v>
       </c>
       <c r="E7" t="str">
-        <v>高松市新田町甲2181-1</v>
+        <v>高松市屋島西町2277-4</v>
       </c>
       <c r="F7" t="str">
-        <v>087-818-1357</v>
+        <v/>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -695,7 +695,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J7" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K7" t="str">
         <v/>
@@ -704,10 +704,10 @@
         <v/>
       </c>
       <c r="M7" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N7" t="str">
-        <v>29</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -715,19 +715,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.35848056</v>
+        <v>34.2964575</v>
       </c>
       <c r="C8" t="str">
-        <v>134.0891589</v>
+        <v>134.0994817</v>
       </c>
       <c r="D8" t="str">
-        <v>小規模多機能施設　富士</v>
+        <v>多機能型施設  邑</v>
       </c>
       <c r="E8" t="str">
-        <v>高松市屋島西町2277-4</v>
+        <v>高松市前田西町1080-18</v>
       </c>
       <c r="F8" t="str">
-        <v>087-844-8864</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -739,7 +739,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J8" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K8" t="str">
         <v/>
@@ -748,10 +748,10 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N8" t="str">
-        <v>25</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -759,22 +759,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>34.2964575</v>
+        <v>34.27412639</v>
       </c>
       <c r="C9" t="str">
-        <v>134.0994817</v>
+        <v>134.0882281</v>
       </c>
       <c r="D9" t="str">
-        <v>多機能型施設  邑</v>
+        <v>香川県高齢者生活協同組合「ひだまり川島」</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市前田西町1080-18</v>
+        <v>高松市川島東町925-1</v>
       </c>
       <c r="F9" t="str">
-        <v>087-847-1150</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>http://www.syurikai.com/</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -783,7 +783,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J9" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K9" t="str">
         <v/>
@@ -792,10 +792,10 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N9" t="str">
-        <v>29</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>34.27412639</v>
+        <v>34.27728694</v>
       </c>
       <c r="C10" t="str">
-        <v>134.0882281</v>
+        <v>134.0755206</v>
       </c>
       <c r="D10" t="str">
-        <v>香川県高齢者生活協同組合「ひだまり川島」</v>
+        <v>やまぶき小規模多機能型居宅介護事業所</v>
       </c>
       <c r="E10" t="str">
-        <v>高松市川島東町925-1</v>
+        <v>高松市三谷町316</v>
       </c>
       <c r="F10" t="str">
-        <v>087-848-2877</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -827,7 +827,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J10" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K10" t="str">
         <v/>
@@ -836,10 +836,10 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N10" t="str">
-        <v>25</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -847,22 +847,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>34.27728694</v>
+        <v>34.35680056</v>
       </c>
       <c r="C11" t="str">
-        <v>134.0755206</v>
+        <v>133.9730411</v>
       </c>
       <c r="D11" t="str">
-        <v>やまぶき小規模多機能型居宅介護事業所</v>
+        <v>在宅サポートセンター　ハピネス</v>
       </c>
       <c r="E11" t="str">
-        <v>高松市三谷町316</v>
+        <v>高松市中山町772-1</v>
       </c>
       <c r="F11" t="str">
-        <v>087-888-5500</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>https://www.sumire-fukushi.jp/</v>
+        <v/>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -871,7 +871,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J11" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K11" t="str">
         <v/>
@@ -880,10 +880,10 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N11" t="str">
-        <v>24</v>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -891,22 +891,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>34.35680056</v>
+        <v>34.32090611</v>
       </c>
       <c r="C12" t="str">
-        <v>133.9730411</v>
+        <v>134.1599506</v>
       </c>
       <c r="D12" t="str">
-        <v>在宅サポートセンター　ハピネス</v>
+        <v>小規模多機能型施設  侶</v>
       </c>
       <c r="E12" t="str">
-        <v>高松市中山町772-1</v>
+        <v>高松市牟礼町原216-5</v>
       </c>
       <c r="F12" t="str">
-        <v>087-816-6900</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>http://www.shinboukai.net/</v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -915,7 +915,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J12" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K12" t="str">
         <v/>
@@ -924,10 +924,10 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N12" t="str">
-        <v>25</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -935,22 +935,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>34.32090611</v>
+        <v>34.264656</v>
       </c>
       <c r="C13" t="str">
-        <v>134.1599506</v>
+        <v>134.02725</v>
       </c>
       <c r="D13" t="str">
-        <v>小規模多機能型施設  侶</v>
+        <v>多機能ホーム　ひまわり</v>
       </c>
       <c r="E13" t="str">
-        <v>高松市牟礼町原216-5</v>
+        <v>高松市香川町大野901-1</v>
       </c>
       <c r="F13" t="str">
-        <v>087-870-1137</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>http://www.syurikai.com/</v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -959,7 +959,7 @@
         <v>小規模多機能型居宅介護</v>
       </c>
       <c r="J13" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K13" t="str">
         <v/>
@@ -968,103 +968,15 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N13" t="str">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <v>34.29311833</v>
-      </c>
-      <c r="C14" t="str">
-        <v>133.9482814</v>
-      </c>
-      <c r="D14" t="str">
-        <v>小規模多機能型居宅介護事業所　らく楽国分寺</v>
-      </c>
-      <c r="E14" t="str">
-        <v>高松市国分寺町柏原1059-2</v>
-      </c>
-      <c r="F14" t="str">
-        <v>087-870-6001</v>
-      </c>
-      <c r="G14" t="str">
-        <v>http://www.rakuraku-group.jp/</v>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v>小規模多機能型居宅介護</v>
-      </c>
-      <c r="J14" t="str">
-        <v>月火水木金土日</v>
-      </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <v>24時間対応</v>
-      </c>
-      <c r="N14" t="str">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <v>34.264656</v>
-      </c>
-      <c r="C15" t="str">
-        <v>134.02725</v>
-      </c>
-      <c r="D15" t="str">
-        <v>多機能ホーム　ひまわり</v>
-      </c>
-      <c r="E15" t="str">
-        <v>高松市香川町大野901-1</v>
-      </c>
-      <c r="F15" t="str">
-        <v>087-885-6661</v>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v>小規模多機能型居宅介護</v>
-      </c>
-      <c r="J15" t="str">
-        <v>月火水木金土日</v>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <v>24時間対応</v>
-      </c>
-      <c r="N15" t="str">
-        <v>25</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N13"/>
   </ignoredErrors>
 </worksheet>
 </file>